--- a/Java_FullStack_DailyWise_Topics_Discussions.xlsx
+++ b/Java_FullStack_DailyWise_Topics_Discussions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\study_comrade_batches\java_fullstack_training\java-full-stack-sessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D63DBA-B954-4468-8584-6A077CDA95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C95EE8-D748-42F4-9C0C-45FCAEB6DA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Sl. No</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Interaction with Students, Introduction about Java Full Stack &amp; It's Use, Tools: Git &amp; IDE: VS Code</t>
-  </si>
-  <si>
     <t>`2</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>Java, Git</t>
+  </si>
+  <si>
+    <t>Introduction about Java Full Stack &amp; It's Use, Tools: Git &amp; IDE: VS Code</t>
+  </si>
+  <si>
+    <t>Introduction to html, elements: h1 to h6, p, etc.,</t>
+  </si>
+  <si>
+    <t>Html</t>
   </si>
 </sst>
 </file>
@@ -306,12 +312,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -326,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -344,6 +356,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +647,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -667,81 +687,91 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="14">
+        <v>44688</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>44688</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="14">
+        <v>44689</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44689</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>44690</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7">
         <v>44691</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
         <v>44692</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>44693</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>44694</v>
@@ -750,75 +780,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14">
+        <v>44695</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
-        <v>44695</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B11" s="14">
+        <v>44696</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44696</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7">
         <v>44697</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>44698</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
         <v>44699</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7">
         <v>44700</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7">
         <v>44701</v>
@@ -827,75 +861,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44702</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7">
-        <v>44702</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B18" s="14">
+        <v>44703</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="7">
-        <v>44703</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="B19" s="7">
         <v>44704</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="7">
         <v>44705</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7">
         <v>44706</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="7">
         <v>44707</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="7">
         <v>44708</v>
@@ -904,75 +942,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="7">
         <v>44709</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="7">
         <v>44710</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7">
         <v>44711</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="7">
         <v>44712</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="7">
         <v>44713</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="7">
         <v>44714</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="7">
         <v>44715</v>
@@ -981,75 +1019,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="7">
         <v>44716</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="7">
         <v>44717</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="7">
         <v>44718</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="7">
         <v>44719</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7">
         <v>44720</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="7">
         <v>44721</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="7">
         <v>44722</v>
@@ -1060,73 +1098,73 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="7">
         <v>44723</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="7">
         <v>44724</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="7">
         <v>44725</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7">
         <v>44726</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7">
         <v>44727</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="7">
         <v>44728</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="7">
         <v>44729</v>
@@ -1137,73 +1175,73 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="7">
         <v>44730</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="7">
         <v>44731</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7">
         <v>44732</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="7">
         <v>44733</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="7">
         <v>44734</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="7">
         <v>44735</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="7">
         <v>44736</v>
